--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="57">
   <si>
     <t>campaignName</t>
   </si>
@@ -22,28 +22,163 @@
     <t>placementName</t>
   </si>
   <si>
-    <t>2LM/FLM/686_Chevy South East LMA_TVE_FLORENCE_LMA_BCN_SER_GNM_2018</t>
-  </si>
-  <si>
-    <t>NCC Media_Chevrolet Division_TVE July Florence_:30+N/A_Video_OTT_SS_17_NT_1_147_N/A_ATF_RON_n/a_N/A_0_PQQLHX</t>
-  </si>
-  <si>
-    <t>NCC Media_Chevrolet Division_TVE Sep Florence_:30+N/A_Video_OTT_SS_17_NT_1_147_N/A_ATF_RON_n/a_N/A_0_PQQLHY</t>
-  </si>
-  <si>
-    <t>NCC Media_Chevrolet Division_TVE June Florence_:30+N/A_Video_OTT_SS_17_NT_1_147_N/A_ATF_RON_n/a_N/A_0_PQQLHS</t>
-  </si>
-  <si>
-    <t>NCC Media_Chevrolet Division_TVE Oct Florence_:30+N/A_Video_OTT_SS_17_NT_1_147_N/A_ATF_RON_n/a_N/A_0_PQQLHT</t>
-  </si>
-  <si>
-    <t>NCC Media_Chevrolet Division_TVE Nov Florence_:30+N/A_Video_OTT_SS_17_NT_1_147_N/A_ATF_RON_n/a_N/A_0_PQQLHV</t>
-  </si>
-  <si>
-    <t>NCC Media_Chevrolet Division_TVE Dec Florence_:30+N/A_Video_OTT_SS_17_NT_1_147_N/A_ATF_RON_n/a_N/A_0_PQQLHW</t>
-  </si>
-  <si>
-    <t>NCC Media_Chevrolet Division_TVE Aug Florence_:30+N/A_Video_OTT_SS_17_NT_1_147_N/A_ATF_RON_n/a_N/A_0_PQQLHR</t>
+    <t>2LM/SAV/683_Chevy South East LMA_SAVANNAH GA_Q2 LMA_BCN_SER_GNM_2018</t>
+  </si>
+  <si>
+    <t>2LM/ORL/683_Chevy South East LMA_ORLANDO / DAYTONA _Q2 LMA_BCN_SER_GNM_2018</t>
+  </si>
+  <si>
+    <t>2LM/NRF/683_Chevy South East LMA_NORFOLK_Q2 LMA_BCN_SER_GNM_2018</t>
+  </si>
+  <si>
+    <t>2LM/CHU/683_Chevy South East LMA_CHARLESTON / HUNT_Q2 LMA_BCN_SER_GNM_2018</t>
+  </si>
+  <si>
+    <t>2LM/LOU/683_Chevy South East LMA_LOUISVILLE_Q2 LMA_BCN_SER_GNM_2018</t>
+  </si>
+  <si>
+    <t>Goodway Group_Chevy Small Car_Video 100% CQ Q2_:30+N/A_Video_All_SS_21_GACBT_1_90_CPV-100_VAR_RON_n/a_N/A_0_PQTW1S</t>
+  </si>
+  <si>
+    <t>Goodway Group_Chevy Small Car_Video 100% CQ Q2_:15+N/A_Video_All_SS_21_GACBT_1_90_CPV-100_VAR_RON_n/a_N/A_0_PQTW1R</t>
+  </si>
+  <si>
+    <t>Goodway Group_Chevy Midsize_Video 100% CQ Q2_:15+N/A_Video_All_SS_21_GACBT_1_90_CPV-100_VAR_RON_n/a_N/A_0_PQTW1N</t>
+  </si>
+  <si>
+    <t>Goodway Group_Chevy Midsize_Video 100% CQ Q2_:30+N/A_Video_All_SS_21_GACBT_1_90_CPV-100_VAR_RON_n/a_N/A_0_PQTW1P</t>
+  </si>
+  <si>
+    <t>Goodway Group_Chevy Truck_Video 100% CQ Q2_:30+N/A_Video_All_SS_21_GACBT_1_90_CPV-100_VAR_RON_n/a_N/A_0_PQTW16</t>
+  </si>
+  <si>
+    <t>Goodway Group_Chevy Truck_Video 100% CQ Q2_:15+N/A_Video_All_SS_21_GACBT_1_90_CPV-100_VAR_RON_n/a_N/A_0_PQTW17</t>
+  </si>
+  <si>
+    <t>Goodway Group_Chevy Truck_15 sec Video 100% Q2 CQ_:15+N/A_Video_All_SS_21_GACBT_1_72_CPV-100_VAR_RON_n/a_N/A_0_PQTYQZ</t>
+  </si>
+  <si>
+    <t>Goodway Group_Chevy Truck_30 sec Video 100% Q2 CQ_:30+N/A_Video_All_SS_21_GACBT_1_72_CPV-100_VAR_RON_n/a_N/A_0_PQTYQY</t>
+  </si>
+  <si>
+    <t>Goodway Group_Chevy Small Car_30 sec Video 100% Q2 CQ_:30+N/A_Video_All_SS_21_GACBT_1_72_CPV-100_VAR_RON_n/a_N/A_0_PQTYSZ</t>
+  </si>
+  <si>
+    <t>Goodway Group_Chevy Small Car_15 sec Video 100% Q2 CQ_:15+N/A_Video_All_SS_21_GACBT_1_72_CPV-100_VAR_RON_n/a_N/A_0_PQTYSY</t>
+  </si>
+  <si>
+    <t>Goodway Group_Chevy Midsize_30 sec Video 100% Q2 CQ_:30+N/A_Video_All_SS_21_GACBT_1_72_CPV-100_VAR_RON_n/a_N/A_0_PQTYS0</t>
+  </si>
+  <si>
+    <t>Goodway Group_Chevy Midsize_15 sec Video 100% Q2 CQ_:15+N/A_Video_All_SS_21_GACBT_1_72_CPV-100_VAR_RON_n/a_N/A_0_PQTYS1</t>
+  </si>
+  <si>
+    <t>Goodway Group_Chevy Small Car_Video 50% CQ Q2_:15+N/A_Video_All_SS_21_GACBT_1_68_CPV-100_VAR_RON_n/a_N/A_0_PQTZ7S</t>
+  </si>
+  <si>
+    <t>Goodway Group_Chevy Midsize_Video 50% CQ Q2_:30+N/A_Video_All_SS_21_GACBT_1_68_CPV-100_VAR_RON_n/a_N/A_0_PQTZ7T</t>
+  </si>
+  <si>
+    <t>Goodway Group_Chevy Midsize_Video 50% CQ Q2_:15+N/A_Video_All_SS_21_GACBT_1_68_CPV-100_VAR_RON_n/a_N/A_0_PQTZ6R</t>
+  </si>
+  <si>
+    <t>Goodway Group_Chevy Small Car_Video 50% CQ Q2_:30+N/A_Video_All_SS_21_GACBT_1_68_CPV-100_VAR_RON_n/a_N/A_0_PQTZ6S</t>
+  </si>
+  <si>
+    <t>Goodway Group_Chevy Truck_Video 50% CQ Q2_:30+N/A_Video_All_SS_21_GACBT_1_68_CPV-100_VAR_RON_n/a_N/A_0_PQTZ1G</t>
+  </si>
+  <si>
+    <t>Goodway Group_Chevy Truck_Video 50% CQ Q2_:15+N/A_Video_All_SS_21_GACBT_1_68_CPV-100_VAR_RON_n/a_N/A_0_PQTZ1H</t>
+  </si>
+  <si>
+    <t>Goodway Group_Chevy Small Car_Video 50% RET Q2 _:30+N/A_Video_All_SS_23_GACBT_1_68_CPV-100_VAR_RON_n/a_N/A_0_PQTZH0</t>
+  </si>
+  <si>
+    <t>Goodway Group_Chevy Small Car_Video 50% RET Q2 _:15+N/A_Video_All_SS_23_GACBT_1_68_CPV-100_VAR_RON_n/a_N/A_0_PQTZGZ</t>
+  </si>
+  <si>
+    <t>Goodway Group_Chevy Midsize_Video 50% RET Q2 _:30+N/A_Video_All_SS_23_GACBT_1_68_CPV-100_VAR_RON_n/a_N/A_0_PQTZHJ</t>
+  </si>
+  <si>
+    <t>Goodway Group_Chevy Midsize_Video 50% RET Q2 _:15+N/A_Video_All_SS_23_GACBT_1_68_CPV-100_VAR_RON_n/a_N/A_0_PQTZHH</t>
+  </si>
+  <si>
+    <t>Goodway Group_Chevy Truck_Video 50% RET Q2 _:30+N/A_Video_All_SS_23_GACBT_1_68_CPV-100_VAR_RON_n/a_N/A_0_PQTZFV</t>
+  </si>
+  <si>
+    <t>Goodway Group_Chevy Truck_Video 50% RET Q2 _:15+N/A_Video_All_SS_23_GACBT_1_68_CPV-100_VAR_RON_n/a_N/A_0_PQTZFT</t>
+  </si>
+  <si>
+    <t>Goodway Group_Chevy Midsize_Video 50% RET_:15+N/A_Video_All_SS_23_GACBT_1_20_CPV-100_VAR_RON_n/a_N/A_0_PQTR0G</t>
+  </si>
+  <si>
+    <t>Goodway Group_Chevy Midsize_Video 50% RET_:30+N/A_Video_All_SS_23_GACBT_1_20_CPV-100_VAR_RON_n/a_N/A_0_PQTR0H</t>
+  </si>
+  <si>
+    <t>Goodway Group_Chevy Truck_Video 50% RET_:15+N/A_Video_All_SS_23_GACBT_1_20_CPV-100_VAR_RON_n/a_N/A_0_PQTR09</t>
+  </si>
+  <si>
+    <t>Goodway Group_Chevy Truck_Video 50% RET_:30+N/A_Video_All_SS_23_GACBT_1_20_CPV-100_VAR_RON_n/a_N/A_0_PQTR0B</t>
+  </si>
+  <si>
+    <t>Goodway Group_Chevy Small Car_Video 50% RET_:30+N/A_Video_All_SS_23_GACBT_1_20_CPV-100_VAR_RON_n/a_N/A_0_PQTR0L</t>
+  </si>
+  <si>
+    <t>Goodway Group_Chevy Small Car_Video 50% RET_:15+N/A_Video_All_SS_23_GACBT_1_20_CPV-100_VAR_RON_n/a_N/A_0_PQTR0K</t>
+  </si>
+  <si>
+    <t>Goodway Group_Chevy Midsize_Video 50% CQ_:15+N/A_Video_All_SS_21_GACBT_1_20_CPV-100_VAR_RON_n/a_N/A_0_PQTQTD</t>
+  </si>
+  <si>
+    <t>Goodway Group_Chevy Midsize_Video 50% CQ_:30+N/A_Video_All_SS_21_GACBT_1_20_CPV-100_VAR_RON_n/a_N/A_0_PQTQTF</t>
+  </si>
+  <si>
+    <t>Goodway Group_Chevy Truck_Video 50% CQ_:15+N/A_Video_All_SS_21_GACBT_1_20_CPV-100_VAR_RON_n/a_N/A_0_PQTQT9</t>
+  </si>
+  <si>
+    <t>Goodway Group_Chevy Truck_Video 50% CQ_:30+N/A_Video_All_SS_21_GACBT_1_20_CPV-100_VAR_RON_n/a_N/A_0_PQTQTB</t>
+  </si>
+  <si>
+    <t>Goodway Group_Chevy Small Car_Video 50% CQ_:15+N/A_Video_All_SS_21_GACBT_1_20_CPV-100_VAR_RON_n/a_N/A_0_PQTQVH</t>
+  </si>
+  <si>
+    <t>Goodway Group_Chevy Small Car_Video 50% CQ_:30+N/A_Video_All_SS_21_GACBT_1_20_CPV-100_VAR_RON_n/a_N/A_0_PQTQVJ</t>
+  </si>
+  <si>
+    <t>Goodway Group_Chevy Small Car_Video 50% RET_:15+N/A_Video_All_SS_23_GACBT_1_56_CPV-100_VAR_RON_n/a_N/A_0_PQTZFB</t>
+  </si>
+  <si>
+    <t>Goodway Group_Chevy Small Car_Video 50% RET_:30+N/A_Video_All_SS_23_GACBT_1_56_CPV-100_VAR_RON_n/a_N/A_0_PQTZF8</t>
+  </si>
+  <si>
+    <t>Goodway Group_Chevy Midsize_Video 50% RET_:15+N/A_Video_All_SS_23_GACBT_1_56_CPV-100_VAR_RON_n/a_N/A_0_PQTZF6</t>
+  </si>
+  <si>
+    <t>Goodway Group_Chevy Midsize_Video 50% RET_:30+N/A_Video_All_SS_23_GACBT_1_56_CPV-100_VAR_RON_n/a_N/A_0_PQTZF4</t>
+  </si>
+  <si>
+    <t>Goodway Group_Chevy Truck_Video 50% RET_:15+N/A_Video_All_SS_23_GACBT_1_56_CPV-100_VAR_RON_n/a_N/A_0_PQTZF2</t>
+  </si>
+  <si>
+    <t>Goodway Group_Chevy Truck_Video 50% RET_:30+N/A_Video_All_SS_23_GACBT_1_56_CPV-100_VAR_RON_n/a_N/A_0_PQTZF0</t>
+  </si>
+  <si>
+    <t>Goodway Group_Chevy Small Car_Video 50% CQ_:15+N/A_Video_All_SS_21_GACBT_1_56_CPV-100_VAR_RON_n/a_N/A_0_PQTZFC</t>
+  </si>
+  <si>
+    <t>Goodway Group_Chevy Small Car_Video 50% CQ_:30+N/A_Video_All_SS_21_GACBT_1_56_CPV-100_VAR_RON_n/a_N/A_0_PQTZF9</t>
+  </si>
+  <si>
+    <t>Goodway Group_Chevy Midsize_Video 50% CQ_:15+N/A_Video_All_SS_21_GACBT_1_56_CPV-100_VAR_RON_n/a_N/A_0_PQTZF7</t>
+  </si>
+  <si>
+    <t>Goodway Group_Chevy Midsize_Video 50% CQ_:30+N/A_Video_All_SS_21_GACBT_1_56_CPV-100_VAR_RON_n/a_N/A_0_PQTZF5</t>
+  </si>
+  <si>
+    <t>Goodway Group_Chevy Truck_Video 50% CQ_:15+N/A_Video_All_SS_21_GACBT_1_56_CPV-100_VAR_RON_n/a_N/A_0_PQTZF3</t>
+  </si>
+  <si>
+    <t>Goodway Group_Chevy Truck_Video 50% CQ_:30+N/A_Video_All_SS_21_GACBT_1_56_CPV-100_VAR_RON_n/a_N/A_0_PQTZF1</t>
   </si>
   <si>
     <t>Campaign Name</t>
@@ -388,7 +523,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -396,10 +531,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -407,7 +542,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -415,7 +550,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -423,7 +558,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -431,7 +566,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -439,7 +574,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -447,15 +582,343 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
